--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -367,6 +367,24 @@
   </si>
   <si>
     <t>OTRA PRUEBA DE INSERT CON NUEVA MANERA</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>20:08:00</t>
+  </si>
+  <si>
+    <t>prueba jaja xd</t>
+  </si>
+  <si>
+    <t>hola bebe</t>
+  </si>
+  <si>
+    <t>asdasdasda</t>
+  </si>
+  <si>
+    <t>si pa</t>
   </si>
 </sst>
 </file>
@@ -764,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
@@ -1706,8 +1724,8 @@
       <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="F29" t="n">
+        <v>7.0</v>
       </c>
       <c r="G29">
         <v>-15.51</v>
@@ -1719,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="K29"/>
     </row>
@@ -1970,7 +1988,7 @@
         <v>18</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G37" t="n">
         <v>-18561.111</v>
@@ -1982,7 +2000,39 @@
         <v>1.0</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-516.154654</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-12864.54</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="129">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -385,6 +385,33 @@
   </si>
   <si>
     <t>si pa</t>
+  </si>
+  <si>
+    <t>28/09/2021</t>
+  </si>
+  <si>
+    <t>15:05:00</t>
+  </si>
+  <si>
+    <t>cambio de main</t>
+  </si>
+  <si>
+    <t>funciona el control</t>
+  </si>
+  <si>
+    <t>15:35:00</t>
+  </si>
+  <si>
+    <t>funciona agregar</t>
+  </si>
+  <si>
+    <t>Cambia el primero</t>
+  </si>
+  <si>
+    <t>15:55:00</t>
+  </si>
+  <si>
+    <t>Inserta al final</t>
   </si>
 </sst>
 </file>
@@ -782,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
@@ -851,8 +878,8 @@
       <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3">
-        <v>2</v>
+      <c r="F2" s="3" t="n">
+        <v>4.0</v>
       </c>
       <c r="G2" s="16">
         <v>10.1187</v>
@@ -864,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K2" s="5"/>
     </row>
@@ -2020,7 +2047,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G38" t="n">
         <v>-516.154654</v>
@@ -2032,7 +2059,2471 @@
         <v>1.0</v>
       </c>
       <c r="J38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10.1187</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-84.161</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.636</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-82.931</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.6488</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-84.0344</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.952</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-84.154</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.4559</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-85.3929</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.018</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-83.669</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.1647</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-83.7393</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9.508</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-83.945</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9.848</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-84.175</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-84.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.566</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-83.24</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.6505</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-83.8304</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>8.2433</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-83.0335</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.4979</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-83.6591</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10.5839</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-83.8584</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.2358</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-84.0228</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.1361</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-85.8722</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.3163</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-83.9503</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.7609</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-84.0075</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.6955</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-84.3528</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12313.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3131.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3123.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3123.31312</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>123.51</v>
+      </c>
+      <c r="H64" t="n">
+        <v>515.51</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-150.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-15651.8516</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-666666.1111</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-651.2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-15.51</v>
+      </c>
+      <c r="H67" t="n">
+        <v>151.12856</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1565.65146</v>
+      </c>
+      <c r="H68" t="n">
+        <v>64156.65125</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-1231.52</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-54156.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>15351.2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-15654.33</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-8486.1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-18561.111</v>
+      </c>
+      <c r="H74" t="n">
+        <v>111.312313</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-516.154654</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-12864.54</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J75" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.1187</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-84.161</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8.636</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-82.931</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>9.6488</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-84.0344</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.952</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-84.154</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>9.4559</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-85.3929</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>9.018</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-83.669</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>10.1647</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-83.7393</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9.508</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-83.945</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9.848</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-84.175</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-84.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8.566</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-83.24</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>9.6505</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-83.8304</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>8.2433</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-83.0335</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>9.4979</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-83.6591</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10.5839</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-83.8584</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>10.2358</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-84.0228</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>11.1361</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-85.8722</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9.3163</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-83.9503</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>9.7609</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-84.0075</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>9.6955</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-84.3528</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" t="n">
+        <v>12313.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3131.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>78</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3123.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>82</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3123.31312</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>123.51</v>
+      </c>
+      <c r="H101" t="n">
+        <v>515.51</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-150.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-15651.8516</v>
+      </c>
+      <c r="E102" t="s">
+        <v>82</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-666666.1111</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-651.2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-15.51</v>
+      </c>
+      <c r="H104" t="n">
+        <v>151.12856</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1565.65146</v>
+      </c>
+      <c r="H105" t="n">
+        <v>64156.65125</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>82</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-1231.52</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-54156.2</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15351.2</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>82</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>82</v>
+      </c>
+      <c r="F109" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>78</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-15654.33</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-8486.1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-18561.111</v>
+      </c>
+      <c r="H111" t="n">
+        <v>111.312313</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>78</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-516.154654</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-12864.54</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1231.0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-156.5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>15635.6</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="150">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -412,6 +412,69 @@
   </si>
   <si>
     <t>Inserta al final</t>
+  </si>
+  <si>
+    <t>03/03/2000</t>
+  </si>
+  <si>
+    <t>10:30:20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>03/01/2000</t>
+  </si>
+  <si>
+    <t>20:30:10</t>
+  </si>
+  <si>
+    <t>01/02/2005</t>
+  </si>
+  <si>
+    <t>20:20:20</t>
+  </si>
+  <si>
+    <t>03:20:21</t>
+  </si>
+  <si>
+    <t>Al frente de mi casa</t>
+  </si>
+  <si>
+    <t>06:20:21</t>
+  </si>
+  <si>
+    <t>Al frente de mi casa x2</t>
+  </si>
+  <si>
+    <t>04/05/1990</t>
+  </si>
+  <si>
+    <t>23:10:10</t>
+  </si>
+  <si>
+    <t>En el centro de la tierra</t>
+  </si>
+  <si>
+    <t>04/09/1998</t>
+  </si>
+  <si>
+    <t>00:10:05</t>
+  </si>
+  <si>
+    <t>Al lado del pasado</t>
+  </si>
+  <si>
+    <t>21:20:00</t>
+  </si>
+  <si>
+    <t>En mi cuarto</t>
+  </si>
+  <si>
+    <t>21:24:00</t>
+  </si>
+  <si>
+    <t>Debajo de mi cama</t>
   </si>
 </sst>
 </file>
@@ -809,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
@@ -4524,6 +4587,294 @@
       </c>
       <c r="J115" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-500.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-500.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-9000.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-1000.0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-9000.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-190.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>5009.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-390.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="153">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>Debajo de mi cama</t>
+  </si>
+  <si>
+    <t>29/02/2020</t>
+  </si>
+  <si>
+    <t>11:11:11</t>
+  </si>
+  <si>
+    <t>prueba valdiar fecha</t>
   </si>
 </sst>
 </file>
@@ -872,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
@@ -4875,6 +4884,38 @@
       </c>
       <c r="J124" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E125" t="s">
+        <v>82</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/felipeobando_estudiantec_cr/Documents/Escritorio/TEC/Cursos - Semestre 2/Programación Orientada a Objetos/Proyectos/Primer Proyecto/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{37391718-A1C7-40AD-8293-383D9A42F6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E379147F-CFE9-4E2A-B52A-645A5A62E3A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D3406-65D4-B744-9803-6D6C15DDB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="149">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -321,9 +321,6 @@
     <t>01:01:01</t>
   </si>
   <si>
-    <t>cartago centro</t>
-  </si>
-  <si>
     <t>curridabat</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>23:32:22</t>
   </si>
   <si>
-    <t>ultimo elemento</t>
-  </si>
-  <si>
     <t>CAMBIO A LIMON CENTRO</t>
   </si>
   <si>
@@ -366,21 +360,12 @@
     <t>18:14:00</t>
   </si>
   <si>
-    <t>OTRA PRUEBA DE INSERT CON NUEVA MANERA</t>
-  </si>
-  <si>
     <t>asdasd</t>
   </si>
   <si>
     <t>20:08:00</t>
   </si>
   <si>
-    <t>prueba jaja xd</t>
-  </si>
-  <si>
-    <t>hola bebe</t>
-  </si>
-  <si>
     <t>asdasdasda</t>
   </si>
   <si>
@@ -484,6 +469,9 @@
   </si>
   <si>
     <t>prueba valdiar fecha</t>
+  </si>
+  <si>
+    <t>JAJAJ</t>
   </si>
 </sst>
 </file>
@@ -883,25 +871,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="11.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="10.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="11" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="11" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="20.0" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="17" width="12.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="10.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="14" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.1640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.1640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12.5" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.1640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" style="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.1640625" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -934,7 +922,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -950,8 +938,8 @@
       <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>4.0</v>
+      <c r="F2" s="3">
+        <v>4</v>
       </c>
       <c r="G2" s="16">
         <v>10.1187</v>
@@ -963,11 +951,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
@@ -999,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -1063,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
@@ -1159,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -1191,7 +1179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1287,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1351,7 +1339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -1383,7 +1371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
@@ -1400,7 +1388,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="16">
         <v>10.5839</v>
@@ -1412,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
@@ -1447,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
@@ -1464,7 +1452,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G18" s="16">
         <v>11.136100000000001</v>
@@ -1479,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
@@ -1511,7 +1499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1544,7 +1532,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -1576,7 +1564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1609,7 +1597,7 @@
       </c>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1642,7 +1630,7 @@
       </c>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1675,7 +1663,7 @@
       </c>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1708,7 +1696,7 @@
       </c>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1741,7 +1729,7 @@
       </c>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -1774,7 +1762,7 @@
       </c>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -1807,7 +1795,7 @@
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -1823,8 +1811,8 @@
       <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="n">
-        <v>7.0</v>
+      <c r="F29">
+        <v>7</v>
       </c>
       <c r="G29">
         <v>-15.51</v>
@@ -1836,11 +1824,11 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1869,13 +1857,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>99</v>
-      </c>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>100</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
@@ -1902,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>99</v>
-      </c>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>97</v>
@@ -1935,16 +1923,16 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>101</v>
       </c>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
       </c>
       <c r="C33">
         <v>23</v>
@@ -1968,13 +1956,13 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>91</v>
@@ -2001,16 +1989,16 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>105</v>
       </c>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>106</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2021,8 +2009,8 @@
       <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="F35" t="n">
-        <v>7.0</v>
+      <c r="F35">
+        <v>7</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2034,2888 +2022,2888 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K35"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D36" t="n">
+        <v>108</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
         <v>6.1</v>
       </c>
       <c r="E36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
         <v>-15654.33</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-8486.1</v>
       </c>
-      <c r="I36" t="n">
-        <v>1.0</v>
+      <c r="I36">
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>8.0</v>
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-18561.111</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>-18561.111000000001</v>
+      </c>
+      <c r="H37">
         <v>111.312313</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.0</v>
+      <c r="I37">
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>5.0</v>
+        <v>112</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
       </c>
       <c r="E38" t="s">
         <v>78</v>
       </c>
-      <c r="F38" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-516.154654</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>-516.15465400000005</v>
+      </c>
+      <c r="H38">
         <v>-12864.54</v>
       </c>
-      <c r="I38" t="n">
-        <v>1.0</v>
+      <c r="I38">
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>23.0</v>
+        <v>116</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="F39" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.0</v>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>123</v>
+      </c>
+      <c r="H39">
+        <v>1231</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.2</v>
       </c>
-      <c r="D40" t="n">
-        <v>88.0</v>
+      <c r="D40">
+        <v>88</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="F40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
         <v>10.1187</v>
       </c>
-      <c r="H40" t="n">
-        <v>-84.161</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.0</v>
+      <c r="H40">
+        <v>-84.161000000000001</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>24.0</v>
+      <c r="C41">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
-      <c r="F41" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8.636</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-82.931</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.0</v>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="H41">
+        <v>-82.930999999999997</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.5</v>
       </c>
-      <c r="D42" t="n">
-        <v>55.0</v>
+      <c r="D42">
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="F42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>9.6488</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-84.0344</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.0</v>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>9.6487999999999996</v>
+      </c>
+      <c r="H42">
+        <v>-84.034400000000005</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3.1</v>
       </c>
-      <c r="D43" t="n">
-        <v>77.0</v>
+      <c r="D43">
+        <v>77</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="F43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>9.952</v>
       </c>
-      <c r="H43" t="n">
-        <v>-84.154</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.0</v>
+      <c r="H43">
+        <v>-84.153999999999996</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.2</v>
       </c>
-      <c r="D44" t="n">
-        <v>29.0</v>
+      <c r="D44">
+        <v>29</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="F44" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>9.4559</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-85.3929</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.0</v>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>9.4558999999999997</v>
+      </c>
+      <c r="H44">
+        <v>-85.392899999999997</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="C45" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D45" t="n">
-        <v>42.0</v>
+      <c r="C45">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D45">
+        <v>42</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="F45" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>9.018</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-83.669</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.0</v>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>9.0180000000000007</v>
+      </c>
+      <c r="H45">
+        <v>-83.668999999999997</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="C46" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.0</v>
+      <c r="C46">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>29</v>
       </c>
-      <c r="F46" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
         <v>10.1647</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-83.7393</v>
       </c>
-      <c r="I46" t="n">
-        <v>1.0</v>
+      <c r="I46">
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
       <c r="B47" t="s">
         <v>60</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>3.3</v>
       </c>
-      <c r="D47" t="n">
-        <v>40.0</v>
+      <c r="D47">
+        <v>40</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="F47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>9.508</v>
-      </c>
-      <c r="H47" t="n">
-        <v>-83.945</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.0</v>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>9.5079999999999991</v>
+      </c>
+      <c r="H47">
+        <v>-83.944999999999993</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="C48" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>66.0</v>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>66</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
       </c>
-      <c r="F48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>9.848</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-84.175</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.0</v>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="H48">
+        <v>-84.174999999999997</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>62</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.7</v>
       </c>
-      <c r="D49" t="n">
-        <v>20.0</v>
+      <c r="D49">
+        <v>20</v>
       </c>
       <c r="E49" t="s">
         <v>29</v>
       </c>
-      <c r="F49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>9.65</v>
       </c>
-      <c r="H49" t="n">
-        <v>-84.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.0</v>
+      <c r="H49">
+        <v>-84</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>3.5</v>
       </c>
-      <c r="D50" t="n">
-        <v>20.0</v>
+      <c r="D50">
+        <v>20</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
-      <c r="F50" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>8.566</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>8.5660000000000007</v>
+      </c>
+      <c r="H50">
         <v>-83.24</v>
       </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
+      <c r="I50">
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
       <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>3.4</v>
       </c>
-      <c r="D51" t="n">
-        <v>23.0</v>
+      <c r="D51">
+        <v>23</v>
       </c>
       <c r="E51" t="s">
         <v>29</v>
       </c>
-      <c r="F51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>9.6505</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-83.8304</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.0</v>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>9.6504999999999992</v>
+      </c>
+      <c r="H51">
+        <v>-83.830399999999997</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.3</v>
       </c>
-      <c r="D52" t="n">
-        <v>16.0</v>
+      <c r="D52">
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="F52" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>8.2433</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-83.0335</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.0</v>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>8.2432999999999996</v>
+      </c>
+      <c r="H52">
+        <v>-83.033500000000004</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>66</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>3.3</v>
       </c>
-      <c r="D53" t="n">
-        <v>6.0</v>
+      <c r="D53">
+        <v>6</v>
       </c>
       <c r="E53" t="s">
         <v>29</v>
       </c>
-      <c r="F53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>9.4979</v>
-      </c>
-      <c r="H53" t="n">
-        <v>-83.6591</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.0</v>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>9.4978999999999996</v>
+      </c>
+      <c r="H53">
+        <v>-83.659099999999995</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>67</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>4.8</v>
       </c>
-      <c r="D54" t="n">
-        <v>14.0</v>
+      <c r="D54">
+        <v>14</v>
       </c>
       <c r="E54" t="s">
         <v>29</v>
       </c>
-      <c r="F54" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
         <v>10.5839</v>
       </c>
-      <c r="H54" t="n">
-        <v>-83.8584</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.0</v>
+      <c r="H54">
+        <v>-83.858400000000003</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>68</v>
       </c>
-      <c r="C55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D55">
         <v>101.7</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
-      <c r="F55" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>10.2358</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-84.0228</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.0</v>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>10.235799999999999</v>
+      </c>
+      <c r="H55">
+        <v>-84.022800000000004</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>4.2</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>85.7</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
       </c>
-      <c r="F56" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>11.1361</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-85.8722</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.0</v>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>11.136100000000001</v>
+      </c>
+      <c r="H56">
+        <v>-85.872200000000007</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>70</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>3.5</v>
       </c>
-      <c r="D57" t="n">
-        <v>49.0</v>
+      <c r="D57">
+        <v>49</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="F57" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
         <v>9.3163</v>
       </c>
-      <c r="H57" t="n">
-        <v>-83.9503</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.0</v>
+      <c r="H57">
+        <v>-83.950299999999999</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>51</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
       </c>
-      <c r="C58" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
         <v>9.5</v>
       </c>
       <c r="E58" t="s">
         <v>29</v>
       </c>
-      <c r="F58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>9.7609</v>
-      </c>
-      <c r="H58" t="n">
-        <v>-84.0075</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.0</v>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>9.7608999999999995</v>
+      </c>
+      <c r="H58">
+        <v>-84.007499999999993</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>4.2</v>
       </c>
-      <c r="D59" t="n">
-        <v>22.0</v>
+      <c r="D59">
+        <v>22</v>
       </c>
       <c r="E59" t="s">
         <v>29</v>
       </c>
-      <c r="F59" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>9.6955</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-84.3528</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.0</v>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>9.6954999999999991</v>
+      </c>
+      <c r="H59">
+        <v>-84.352800000000002</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="C60" t="n">
-        <v>12313.0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1231.0</v>
+      <c r="C60">
+        <v>12313</v>
+      </c>
+      <c r="D60">
+        <v>1231</v>
       </c>
       <c r="E60" t="s">
         <v>29</v>
       </c>
-      <c r="F60" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3131.0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.0</v>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>3131</v>
+      </c>
+      <c r="H60">
+        <v>131</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>31.0</v>
+      <c r="C61">
+        <v>131</v>
+      </c>
+      <c r="D61">
+        <v>31</v>
       </c>
       <c r="E61" t="s">
         <v>78</v>
       </c>
-      <c r="F61" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3123.0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.0</v>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>3123</v>
+      </c>
+      <c r="H61">
+        <v>1231</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
       <c r="B62" t="s">
         <v>81</v>
       </c>
-      <c r="C62" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>123.0</v>
+      <c r="C62">
+        <v>123</v>
+      </c>
+      <c r="D62">
+        <v>123</v>
       </c>
       <c r="E62" t="s">
         <v>82</v>
       </c>
-      <c r="F62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.0</v>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>123</v>
+      </c>
+      <c r="H62">
+        <v>123</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>84</v>
       </c>
       <c r="B63" t="s">
         <v>85</v>
       </c>
-      <c r="C63" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>131.0</v>
+      <c r="C63">
+        <v>1231</v>
+      </c>
+      <c r="D63">
+        <v>131</v>
       </c>
       <c r="E63" t="s">
         <v>82</v>
       </c>
-      <c r="F63" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>313.0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.0</v>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>313</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
       <c r="B64" t="s">
         <v>88</v>
       </c>
-      <c r="C64" t="n">
-        <v>3123.31312</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64">
+        <v>3123.3131199999998</v>
+      </c>
+      <c r="D64">
         <v>-23.31</v>
       </c>
       <c r="E64" t="s">
         <v>82</v>
       </c>
-      <c r="F64" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
         <v>123.51</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>515.51</v>
       </c>
-      <c r="I64" t="n">
-        <v>1.0</v>
+      <c r="I64">
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>91</v>
       </c>
-      <c r="C65" t="n">
-        <v>-150.0</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65">
+        <v>-150</v>
+      </c>
+      <c r="D65">
         <v>-15651.8516</v>
       </c>
       <c r="E65" t="s">
         <v>82</v>
       </c>
-      <c r="F65" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-666666.1111</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-651.2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.0</v>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>-666666.11109999998</v>
+      </c>
+      <c r="H65">
+        <v>-651.20000000000005</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>93</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="C66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.0</v>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="F66" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.0</v>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>96</v>
       </c>
       <c r="B67" t="s">
         <v>97</v>
       </c>
-      <c r="C67" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>6.0</v>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
       </c>
-      <c r="F67" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
         <v>-15.51</v>
       </c>
-      <c r="H67" t="n">
-        <v>151.12856</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.0</v>
+      <c r="H67">
+        <v>151.12855999999999</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
       </c>
-      <c r="C68" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>6.0</v>
+      <c r="C68">
+        <v>62</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
       </c>
       <c r="E68" t="s">
         <v>29</v>
       </c>
-      <c r="F68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>-1565.65146</v>
       </c>
-      <c r="H68" t="n">
-        <v>64156.65125</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.0</v>
+      <c r="H68">
+        <v>64156.651250000003</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
       </c>
       <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>100</v>
       </c>
       <c r="B69" t="s">
         <v>97</v>
       </c>
-      <c r="C69" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3.0</v>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
       </c>
       <c r="E69" t="s">
         <v>82</v>
       </c>
-      <c r="F69" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>1231</v>
+      </c>
+      <c r="H69">
         <v>-1231.52</v>
       </c>
-      <c r="I69" t="n">
-        <v>2.0</v>
+      <c r="I69">
+        <v>2</v>
       </c>
       <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>102</v>
       </c>
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>311.0</v>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>311</v>
       </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
-      <c r="F70" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
         <v>-54156.2</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>15351.2</v>
       </c>
-      <c r="I70" t="n">
-        <v>2.0</v>
+      <c r="I70">
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>91</v>
       </c>
-      <c r="C71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.0</v>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>82</v>
       </c>
-      <c r="F71" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.0</v>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
       </c>
       <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>106</v>
       </c>
-      <c r="B72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.0</v>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>82</v>
       </c>
-      <c r="F72" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.0</v>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D73" t="n">
+        <v>108</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
         <v>6.1</v>
       </c>
       <c r="E73" t="s">
         <v>78</v>
       </c>
-      <c r="F73" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
         <v>-15654.33</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>-8486.1</v>
       </c>
-      <c r="I73" t="n">
-        <v>1.0</v>
+      <c r="I73">
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>8.0</v>
+        <v>110</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F74" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-18561.111</v>
-      </c>
-      <c r="H74" t="n">
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>-18561.111000000001</v>
+      </c>
+      <c r="H74">
         <v>111.312313</v>
       </c>
-      <c r="I74" t="n">
-        <v>1.0</v>
+      <c r="I74">
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>5.0</v>
+        <v>112</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
       </c>
       <c r="E75" t="s">
         <v>78</v>
       </c>
-      <c r="F75" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-516.154654</v>
-      </c>
-      <c r="H75" t="n">
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>-516.15465400000005</v>
+      </c>
+      <c r="H75">
         <v>-12864.54</v>
       </c>
-      <c r="I75" t="n">
-        <v>1.0</v>
+      <c r="I75">
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>23.0</v>
+        <v>116</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>23</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
-      <c r="F76" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.0</v>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>123</v>
+      </c>
+      <c r="H76">
+        <v>1231</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>33</v>
       </c>
       <c r="B77" t="s">
         <v>53</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>4.2</v>
       </c>
-      <c r="D77" t="n">
-        <v>88.0</v>
+      <c r="D77">
+        <v>88</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
       </c>
-      <c r="F77" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
         <v>10.1187</v>
       </c>
-      <c r="H77" t="n">
-        <v>-84.161</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.0</v>
+      <c r="H77">
+        <v>-84.161000000000001</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>34</v>
       </c>
       <c r="B78" t="s">
         <v>54</v>
       </c>
-      <c r="C78" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>24.0</v>
+      <c r="C78">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D78">
+        <v>24</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
-      <c r="F78" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>8.636</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-82.931</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.0</v>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>8.6359999999999992</v>
+      </c>
+      <c r="H78">
+        <v>-82.930999999999997</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>3.5</v>
       </c>
-      <c r="D79" t="n">
-        <v>55.0</v>
+      <c r="D79">
+        <v>55</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
       </c>
-      <c r="F79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>9.6488</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-84.0344</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.0</v>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>9.6487999999999996</v>
+      </c>
+      <c r="H79">
+        <v>-84.034400000000005</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>36</v>
       </c>
       <c r="B80" t="s">
         <v>56</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>3.1</v>
       </c>
-      <c r="D80" t="n">
-        <v>77.0</v>
+      <c r="D80">
+        <v>77</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
       </c>
-      <c r="F80" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
         <v>9.952</v>
       </c>
-      <c r="H80" t="n">
-        <v>-84.154</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.0</v>
+      <c r="H80">
+        <v>-84.153999999999996</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>37</v>
       </c>
       <c r="B81" t="s">
         <v>57</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>4.2</v>
       </c>
-      <c r="D81" t="n">
-        <v>29.0</v>
+      <c r="D81">
+        <v>29</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="F81" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>9.4559</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-85.3929</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.0</v>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>9.4558999999999997</v>
+      </c>
+      <c r="H81">
+        <v>-85.392899999999997</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>38</v>
       </c>
       <c r="B82" t="s">
         <v>58</v>
       </c>
-      <c r="C82" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D82" t="n">
-        <v>42.0</v>
+      <c r="C82">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D82">
+        <v>42</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
-      <c r="F82" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>9.018</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-83.669</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1.0</v>
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>9.0180000000000007</v>
+      </c>
+      <c r="H82">
+        <v>-83.668999999999997</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
       <c r="B83" t="s">
         <v>59</v>
       </c>
-      <c r="C83" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>3.0</v>
+      <c r="C83">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
       </c>
-      <c r="F83" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G83" t="n">
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
         <v>10.1647</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>-83.7393</v>
       </c>
-      <c r="I83" t="n">
-        <v>1.0</v>
+      <c r="I83">
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>3.3</v>
       </c>
-      <c r="D84" t="n">
-        <v>40.0</v>
+      <c r="D84">
+        <v>40</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
-      <c r="F84" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>9.508</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-83.945</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1.0</v>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>9.5079999999999991</v>
+      </c>
+      <c r="H84">
+        <v>-83.944999999999993</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>41</v>
       </c>
       <c r="B85" t="s">
         <v>61</v>
       </c>
-      <c r="C85" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>66.0</v>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>66</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
       </c>
-      <c r="F85" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>9.848</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-84.175</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.0</v>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>9.8480000000000008</v>
+      </c>
+      <c r="H85">
+        <v>-84.174999999999997</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>42</v>
       </c>
       <c r="B86" t="s">
         <v>62</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>4.7</v>
       </c>
-      <c r="D86" t="n">
-        <v>20.0</v>
+      <c r="D86">
+        <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>29</v>
       </c>
-      <c r="F86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
         <v>9.65</v>
       </c>
-      <c r="H86" t="n">
-        <v>-84.0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.0</v>
+      <c r="H86">
+        <v>-84</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>43</v>
       </c>
       <c r="B87" t="s">
         <v>63</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>3.5</v>
       </c>
-      <c r="D87" t="n">
-        <v>20.0</v>
+      <c r="D87">
+        <v>20</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
       </c>
-      <c r="F87" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>8.566</v>
-      </c>
-      <c r="H87" t="n">
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>8.5660000000000007</v>
+      </c>
+      <c r="H87">
         <v>-83.24</v>
       </c>
-      <c r="I87" t="n">
-        <v>1.0</v>
+      <c r="I87">
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>44</v>
       </c>
       <c r="B88" t="s">
         <v>64</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3.4</v>
       </c>
-      <c r="D88" t="n">
-        <v>23.0</v>
+      <c r="D88">
+        <v>23</v>
       </c>
       <c r="E88" t="s">
         <v>29</v>
       </c>
-      <c r="F88" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>9.6505</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-83.8304</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.0</v>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>9.6504999999999992</v>
+      </c>
+      <c r="H88">
+        <v>-83.830399999999997</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>4.3</v>
       </c>
-      <c r="D89" t="n">
-        <v>16.0</v>
+      <c r="D89">
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
       </c>
-      <c r="F89" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>8.2433</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-83.0335</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.0</v>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>8.2432999999999996</v>
+      </c>
+      <c r="H89">
+        <v>-83.033500000000004</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>46</v>
       </c>
       <c r="B90" t="s">
         <v>66</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>3.3</v>
       </c>
-      <c r="D90" t="n">
-        <v>6.0</v>
+      <c r="D90">
+        <v>6</v>
       </c>
       <c r="E90" t="s">
         <v>29</v>
       </c>
-      <c r="F90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>9.4979</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-83.6591</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.0</v>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>9.4978999999999996</v>
+      </c>
+      <c r="H90">
+        <v>-83.659099999999995</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>47</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>4.8</v>
       </c>
-      <c r="D91" t="n">
-        <v>14.0</v>
+      <c r="D91">
+        <v>14</v>
       </c>
       <c r="E91" t="s">
         <v>29</v>
       </c>
-      <c r="F91" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
         <v>10.5839</v>
       </c>
-      <c r="H91" t="n">
-        <v>-83.8584</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.0</v>
+      <c r="H91">
+        <v>-83.858400000000003</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>48</v>
       </c>
       <c r="B92" t="s">
         <v>68</v>
       </c>
-      <c r="C92" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D92">
         <v>101.7</v>
       </c>
       <c r="E92" t="s">
         <v>29</v>
       </c>
-      <c r="F92" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>10.2358</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-84.0228</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.0</v>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>10.235799999999999</v>
+      </c>
+      <c r="H92">
+        <v>-84.022800000000004</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>49</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>4.2</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>85.7</v>
       </c>
       <c r="E93" t="s">
         <v>29</v>
       </c>
-      <c r="F93" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>11.1361</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-85.8722</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.0</v>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>11.136100000000001</v>
+      </c>
+      <c r="H93">
+        <v>-85.872200000000007</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>50</v>
       </c>
       <c r="B94" t="s">
         <v>70</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>3.5</v>
       </c>
-      <c r="D94" t="n">
-        <v>49.0</v>
+      <c r="D94">
+        <v>49</v>
       </c>
       <c r="E94" t="s">
         <v>18</v>
       </c>
-      <c r="F94" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94">
         <v>9.3163</v>
       </c>
-      <c r="H94" t="n">
-        <v>-83.9503</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.0</v>
+      <c r="H94">
+        <v>-83.950299999999999</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>51</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
       </c>
-      <c r="C95" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
         <v>9.5</v>
       </c>
       <c r="E95" t="s">
         <v>29</v>
       </c>
-      <c r="F95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>9.7609</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-84.0075</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1.0</v>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>9.7608999999999995</v>
+      </c>
+      <c r="H95">
+        <v>-84.007499999999993</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
       <c r="B96" t="s">
         <v>72</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>4.2</v>
       </c>
-      <c r="D96" t="n">
-        <v>22.0</v>
+      <c r="D96">
+        <v>22</v>
       </c>
       <c r="E96" t="s">
         <v>29</v>
       </c>
-      <c r="F96" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>9.6955</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-84.3528</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1.0</v>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96">
+        <v>9.6954999999999991</v>
+      </c>
+      <c r="H96">
+        <v>-84.352800000000002</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
       <c r="B97" t="s">
         <v>74</v>
       </c>
-      <c r="C97" t="n">
-        <v>12313.0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1231.0</v>
+      <c r="C97">
+        <v>12313</v>
+      </c>
+      <c r="D97">
+        <v>1231</v>
       </c>
       <c r="E97" t="s">
         <v>29</v>
       </c>
-      <c r="F97" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>3131.0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.0</v>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>3131</v>
+      </c>
+      <c r="H97">
+        <v>131</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>76</v>
       </c>
       <c r="B98" t="s">
         <v>77</v>
       </c>
-      <c r="C98" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>31.0</v>
+      <c r="C98">
+        <v>131</v>
+      </c>
+      <c r="D98">
+        <v>31</v>
       </c>
       <c r="E98" t="s">
         <v>78</v>
       </c>
-      <c r="F98" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>3123.0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2.0</v>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
+        <v>3123</v>
+      </c>
+      <c r="H98">
+        <v>1231</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>80</v>
       </c>
       <c r="B99" t="s">
         <v>81</v>
       </c>
-      <c r="C99" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>123.0</v>
+      <c r="C99">
+        <v>123</v>
+      </c>
+      <c r="D99">
+        <v>123</v>
       </c>
       <c r="E99" t="s">
         <v>82</v>
       </c>
-      <c r="F99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2.0</v>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>123</v>
+      </c>
+      <c r="H99">
+        <v>123</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>84</v>
       </c>
       <c r="B100" t="s">
         <v>85</v>
       </c>
-      <c r="C100" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>131.0</v>
+      <c r="C100">
+        <v>1231</v>
+      </c>
+      <c r="D100">
+        <v>131</v>
       </c>
       <c r="E100" t="s">
         <v>82</v>
       </c>
-      <c r="F100" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>313.0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.0</v>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>313</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>87</v>
       </c>
       <c r="B101" t="s">
         <v>88</v>
       </c>
-      <c r="C101" t="n">
-        <v>3123.31312</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101">
+        <v>3123.3131199999998</v>
+      </c>
+      <c r="D101">
         <v>-23.31</v>
       </c>
       <c r="E101" t="s">
         <v>82</v>
       </c>
-      <c r="F101" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G101" t="n">
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
         <v>123.51</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>515.51</v>
       </c>
-      <c r="I101" t="n">
-        <v>1.0</v>
+      <c r="I101">
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>90</v>
       </c>
       <c r="B102" t="s">
         <v>91</v>
       </c>
-      <c r="C102" t="n">
-        <v>-150.0</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102">
+        <v>-150</v>
+      </c>
+      <c r="D102">
         <v>-15651.8516</v>
       </c>
       <c r="E102" t="s">
         <v>82</v>
       </c>
-      <c r="F102" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-666666.1111</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-651.2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2.0</v>
+      <c r="F102">
+        <v>7</v>
+      </c>
+      <c r="G102">
+        <v>-666666.11109999998</v>
+      </c>
+      <c r="H102">
+        <v>-651.20000000000005</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
       <c r="B103" t="s">
         <v>94</v>
       </c>
-      <c r="C103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.0</v>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
       </c>
-      <c r="F103" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.0</v>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>96</v>
       </c>
       <c r="B104" t="s">
         <v>97</v>
       </c>
-      <c r="C104" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>6.0</v>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
       </c>
-      <c r="F104" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G104" t="n">
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104">
         <v>-15.51</v>
       </c>
-      <c r="H104" t="n">
-        <v>151.12856</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1.0</v>
+      <c r="H104">
+        <v>151.12855999999999</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
         <v>88</v>
       </c>
-      <c r="C105" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>6.0</v>
+      <c r="C105">
+        <v>62</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
       </c>
       <c r="E105" t="s">
         <v>29</v>
       </c>
-      <c r="F105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G105" t="n">
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
         <v>-1565.65146</v>
       </c>
-      <c r="H105" t="n">
-        <v>64156.65125</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1.0</v>
+      <c r="H105">
+        <v>64156.651250000003</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
       </c>
       <c r="J105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>100</v>
       </c>
       <c r="B106" t="s">
         <v>97</v>
       </c>
-      <c r="C106" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>3.0</v>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
       </c>
       <c r="E106" t="s">
         <v>82</v>
       </c>
-      <c r="F106" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="H106" t="n">
+      <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106">
+        <v>1231</v>
+      </c>
+      <c r="H106">
         <v>-1231.52</v>
       </c>
-      <c r="I106" t="n">
-        <v>2.0</v>
+      <c r="I106">
+        <v>2</v>
       </c>
       <c r="J106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>102</v>
       </c>
-      <c r="B107" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>311.0</v>
+      <c r="C107">
+        <v>23</v>
+      </c>
+      <c r="D107">
+        <v>311</v>
       </c>
       <c r="E107" t="s">
         <v>30</v>
       </c>
-      <c r="F107" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G107" t="n">
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107">
         <v>-54156.2</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>15351.2</v>
       </c>
-      <c r="I107" t="n">
-        <v>2.0</v>
+      <c r="I107">
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
         <v>91</v>
       </c>
-      <c r="C108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2.0</v>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
       </c>
       <c r="E108" t="s">
         <v>82</v>
       </c>
-      <c r="F108" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.0</v>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
       </c>
       <c r="J108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>106</v>
       </c>
-      <c r="B109" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.0</v>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="E109" t="s">
         <v>82</v>
       </c>
-      <c r="F109" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2.0</v>
+      <c r="F109">
+        <v>7</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
         <v>6.1</v>
       </c>
       <c r="E110" t="s">
         <v>78</v>
       </c>
-      <c r="F110" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G110" t="n">
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
         <v>-15654.33</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>-8486.1</v>
       </c>
-      <c r="I110" t="n">
-        <v>1.0</v>
+      <c r="I110">
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>8.0</v>
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
       </c>
       <c r="E111" t="s">
         <v>18</v>
       </c>
-      <c r="F111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-18561.111</v>
-      </c>
-      <c r="H111" t="n">
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>-18561.111000000001</v>
+      </c>
+      <c r="H111">
         <v>111.312313</v>
       </c>
-      <c r="I111" t="n">
-        <v>1.0</v>
+      <c r="I111">
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5.0</v>
+        <v>112</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
       </c>
       <c r="E112" t="s">
         <v>78</v>
       </c>
-      <c r="F112" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-516.154654</v>
-      </c>
-      <c r="H112" t="n">
+      <c r="F112">
+        <v>6</v>
+      </c>
+      <c r="G112">
+        <v>-516.15465400000005</v>
+      </c>
+      <c r="H112">
         <v>-12864.54</v>
       </c>
-      <c r="I112" t="n">
-        <v>1.0</v>
+      <c r="I112">
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>23.0</v>
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>23</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
       </c>
-      <c r="F113" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1231.0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1.0</v>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>123</v>
+      </c>
+      <c r="H113">
+        <v>1231</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
-      </c>
-      <c r="C114" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>100.0</v>
+        <v>119</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
+      <c r="D114">
+        <v>100</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
       </c>
-      <c r="F114" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1.0</v>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D115" t="n">
+        <v>122</v>
+      </c>
+      <c r="C115">
+        <v>14</v>
+      </c>
+      <c r="D115">
         <v>8.1</v>
       </c>
       <c r="E115" t="s">
         <v>18</v>
       </c>
-      <c r="F115" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G115" t="n">
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115">
         <v>-156.5</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>15635.6</v>
       </c>
-      <c r="I115" t="n">
-        <v>2.0</v>
+      <c r="I115">
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>3.0</v>
+        <v>125</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
       </c>
       <c r="E116" t="s">
         <v>18</v>
       </c>
-      <c r="F116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.0</v>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>3.0</v>
+        <v>128</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
       </c>
       <c r="E117" t="s">
         <v>18</v>
       </c>
-      <c r="F117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1.0</v>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>3.0</v>
+        <v>130</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
       </c>
       <c r="E118" t="s">
         <v>18</v>
       </c>
-      <c r="F118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1.0</v>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
       </c>
       <c r="J118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>5.0</v>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
       </c>
       <c r="E119" t="s">
         <v>29</v>
       </c>
-      <c r="F119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-500.0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>700.0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1.0</v>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>-500</v>
+      </c>
+      <c r="H119">
+        <v>700</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>10.0</v>
+        <v>133</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
       </c>
-      <c r="F120" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-500.0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>700.0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2.0</v>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>-500</v>
+      </c>
+      <c r="H120">
+        <v>700</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>700.0</v>
+        <v>136</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>700</v>
       </c>
       <c r="E121" t="s">
         <v>78</v>
       </c>
-      <c r="F121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-9000.0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-1000.0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1.0</v>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>-9000</v>
+      </c>
+      <c r="H121">
+        <v>-1000</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>10.0</v>
+        <v>139</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
       </c>
       <c r="E122" t="s">
         <v>82</v>
       </c>
-      <c r="F122" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-9000.0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>750.0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1.0</v>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
+        <v>-9000</v>
+      </c>
+      <c r="H122">
+        <v>750</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C123" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>7000.0</v>
+        <v>141</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>7000</v>
       </c>
       <c r="E123" t="s">
         <v>30</v>
       </c>
-      <c r="F123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-190.0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>5009.0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1.0</v>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>-190</v>
+      </c>
+      <c r="H123">
+        <v>5009</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
-      </c>
-      <c r="C124" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>300.0</v>
+        <v>143</v>
+      </c>
+      <c r="C124">
+        <v>300</v>
+      </c>
+      <c r="D124">
+        <v>300</v>
       </c>
       <c r="E124" t="s">
         <v>29</v>
       </c>
-      <c r="F124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-390.0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1.0</v>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>100</v>
+      </c>
+      <c r="H124">
+        <v>-390</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
-      </c>
-      <c r="C125" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D125" t="n">
+        <v>146</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
         <v>3.34</v>
       </c>
       <c r="E125" t="s">
         <v>82</v>
       </c>
-      <c r="F125" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1.0</v>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5155,18 +5143,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5189,6 +5177,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4292BCCE-7308-4F70-A272-6B4ADAEE3B4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BF098F-A7EB-4925-BB55-245E4CAE68F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -5203,12 +5199,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4292BCCE-7308-4F70-A272-6B4ADAEE3B4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="158">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -472,6 +472,33 @@
   </si>
   <si>
     <t>JAJAJ</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>00:00:22</t>
+  </si>
+  <si>
+    <t>Feo</t>
+  </si>
+  <si>
+    <t>23/09/2021</t>
+  </si>
+  <si>
+    <t>22:01:00</t>
+  </si>
+  <si>
+    <t>jajaj xdddd</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>09:55:12</t>
+  </si>
+  <si>
+    <t>por mi choza</t>
   </si>
 </sst>
 </file>
@@ -869,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
@@ -877,16 +904,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12.5" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.1640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.1640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="14" width="11.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="10.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="14.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="17.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="20.0" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="10.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="14" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -4904,6 +4931,102 @@
       </c>
       <c r="J125" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>78</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-29832.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-23.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-324.4</v>
+      </c>
+      <c r="H127" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>78</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>232.23</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="163">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -499,6 +499,21 @@
   </si>
   <si>
     <t>por mi choza</t>
+  </si>
+  <si>
+    <t>01/10/2021</t>
+  </si>
+  <si>
+    <t>22:02:00</t>
+  </si>
+  <si>
+    <t>En la cocina de mi casa</t>
+  </si>
+  <si>
+    <t>23:25:30</t>
+  </si>
+  <si>
+    <t>En el walmart</t>
   </si>
 </sst>
 </file>
@@ -896,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
@@ -5027,6 +5042,70 @@
       </c>
       <c r="J128" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B129" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-400.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>809.1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>200.62</v>
+      </c>
+      <c r="H130" t="n">
+        <v>100.59</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="166">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>En el walmart</t>
+  </si>
+  <si>
+    <t>10/10/1934</t>
+  </si>
+  <si>
+    <t>01:55:55</t>
+  </si>
+  <si>
+    <t>MI casaaaaa jajaajja xd</t>
   </si>
 </sst>
 </file>
@@ -911,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
@@ -5106,6 +5115,38 @@
       </c>
       <c r="J130" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" t="s">
+        <v>164</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1222.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-123.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/sebastianarroniz55_estudiantec_cr/Documents/TEC/Semestre II 2021/POO/Semana 11/Proyecto I/Tarea1POO/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D3406-65D4-B744-9803-6D6C15DDB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D8D3406-65D4-B744-9803-6D6C15DDB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3F0983-26EE-4DD3-A06C-9EA489829288}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="169">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -523,6 +523,15 @@
   </si>
   <si>
     <t>MI casaaaaa jajaajja xd</t>
+  </si>
+  <si>
+    <t>06/10/2021</t>
+  </si>
+  <si>
+    <t>19:22:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calle Fallas</t>
   </si>
 </sst>
 </file>
@@ -920,27 +929,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="11.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="10.5" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="14" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="10.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="11" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="11" width="14.1640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="17.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="4" width="20.0" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="17" width="12.5" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="10.1640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="14" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.1640625" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="10.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="50.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -973,7 +982,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1006,7 +1015,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
@@ -1294,7 +1303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1583,7 +1592,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1648,7 +1657,7 @@
       </c>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1681,7 +1690,7 @@
       </c>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1714,7 +1723,7 @@
       </c>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1747,7 +1756,7 @@
       </c>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1780,7 +1789,7 @@
       </c>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -1813,7 +1822,7 @@
       </c>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -1846,7 +1855,7 @@
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -1879,7 +1888,7 @@
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1912,7 +1921,7 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -1945,7 +1954,7 @@
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -1978,7 +1987,7 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -2011,7 +2020,7 @@
       </c>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2044,7 +2053,7 @@
       </c>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -2077,7 +2086,7 @@
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -2141,7 +2150,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2397,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2461,7 +2470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2493,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2557,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2589,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2621,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2717,7 +2726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2813,7 +2822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2877,7 +2886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2909,7 +2918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2941,7 +2950,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>99</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -3165,7 +3174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -3197,7 +3206,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -3261,7 +3270,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -3325,7 +3334,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -3421,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -3677,7 +3686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -3709,7 +3718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -3741,7 +3750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -3773,7 +3782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -3837,7 +3846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -3869,7 +3878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -3965,7 +3974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -3997,7 +4006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -4029,7 +4038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>80</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -4157,7 +4166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>90</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -4349,7 +4358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -4413,7 +4422,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -4445,7 +4454,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -4477,7 +4486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -4509,7 +4518,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -4541,7 +4550,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -4573,7 +4582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -4669,7 +4678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -4701,7 +4710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -4733,7 +4742,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -4765,7 +4774,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -4797,7 +4806,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -4829,7 +4838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -4861,7 +4870,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>115</v>
       </c>
@@ -4893,7 +4902,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -4925,7 +4934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>145</v>
       </c>
@@ -4957,196 +4966,228 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
       <c r="B126" t="s">
         <v>150</v>
       </c>
-      <c r="C126" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>7.0</v>
+      <c r="C126">
+        <v>36</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
       </c>
       <c r="E126" t="s">
         <v>78</v>
       </c>
-      <c r="F126" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-29832.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-23.0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2.0</v>
+      <c r="F126">
+        <v>6</v>
+      </c>
+      <c r="G126">
+        <v>-29832</v>
+      </c>
+      <c r="H126">
+        <v>-23</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
       <c r="B127" t="s">
         <v>153</v>
       </c>
-      <c r="C127" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D127" t="n">
+      <c r="C127">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D127">
         <v>3.4</v>
       </c>
       <c r="E127" t="s">
         <v>30</v>
       </c>
-      <c r="F127" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-324.4</v>
-      </c>
-      <c r="H127" t="n">
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>-324.39999999999998</v>
+      </c>
+      <c r="H127">
         <v>23.69</v>
       </c>
-      <c r="I127" t="n">
-        <v>2.0</v>
+      <c r="I127">
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>155</v>
       </c>
       <c r="B128" t="s">
         <v>156</v>
       </c>
-      <c r="C128" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>23.0</v>
+      <c r="C128">
+        <v>45</v>
+      </c>
+      <c r="D128">
+        <v>23</v>
       </c>
       <c r="E128" t="s">
         <v>78</v>
       </c>
-      <c r="F128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G128" t="n">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
         <v>-23.5</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>232.23</v>
       </c>
-      <c r="I128" t="n">
-        <v>1.0</v>
+      <c r="I128">
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>158</v>
       </c>
       <c r="B129" t="s">
         <v>159</v>
       </c>
-      <c r="C129" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.0</v>
+      <c r="C129">
+        <v>45</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
       </c>
       <c r="E129" t="s">
         <v>30</v>
       </c>
-      <c r="F129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-400.0</v>
-      </c>
-      <c r="H129" t="n">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>-400</v>
+      </c>
+      <c r="H129">
         <v>809.1</v>
       </c>
-      <c r="I129" t="n">
-        <v>1.0</v>
+      <c r="I129">
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>158</v>
       </c>
       <c r="B130" t="s">
         <v>161</v>
       </c>
-      <c r="C130" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.0</v>
+      <c r="C130">
+        <v>23</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
       </c>
       <c r="E130" t="s">
         <v>82</v>
       </c>
-      <c r="F130" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G130" t="n">
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
         <v>200.62</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>100.59</v>
       </c>
-      <c r="I130" t="n">
-        <v>2.0</v>
+      <c r="I130">
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>163</v>
       </c>
       <c r="B131" t="s">
         <v>164</v>
       </c>
-      <c r="C131" t="n">
-        <v>1222.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>23.0</v>
+      <c r="C131">
+        <v>1222</v>
+      </c>
+      <c r="D131">
+        <v>23</v>
       </c>
       <c r="E131" t="s">
         <v>30</v>
       </c>
-      <c r="F131" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-123.0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>222.0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2.0</v>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>-123</v>
+      </c>
+      <c r="H131">
+        <v>222</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3087.43</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-88092.902</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5386,18 +5427,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5420,14 +5461,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4292BCCE-7308-4F70-A272-6B4ADAEE3B4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BF098F-A7EB-4925-BB55-245E4CAE68F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -5442,4 +5475,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4292BCCE-7308-4F70-A272-6B4ADAEE3B4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/sebastianarroniz55_estudiantec_cr/Documents/TEC/Semestre II 2021/POO/Semana 11/Proyecto I/Tarea1POO/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D8D3406-65D4-B744-9803-6D6C15DDB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3F0983-26EE-4DD3-A06C-9EA489829288}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711A71E4-A70A-614B-9C21-4860A3FC2569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3620" yWindow="1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="200">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -252,9 +252,6 @@
     <t>07:03:00</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
     <t>31/10/2001</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>Deformación Interna</t>
   </si>
   <si>
-    <t>1231</t>
-  </si>
-  <si>
     <t>25/10/2000</t>
   </si>
   <si>
@@ -276,45 +270,30 @@
     <t>Choque de placas</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>01/09/2003</t>
   </si>
   <si>
     <t>12:02:12</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>02/02/2002</t>
   </si>
   <si>
     <t>02:02:02</t>
   </si>
   <si>
-    <t>515.51</t>
-  </si>
-  <si>
     <t>23/02/1995</t>
   </si>
   <si>
     <t>10:10:10</t>
   </si>
   <si>
-    <t>-154654135156.3</t>
-  </si>
-  <si>
     <t>04/02/5559</t>
   </si>
   <si>
     <t>03:11:12</t>
   </si>
   <si>
-    <t>por alla jajaj xd</t>
-  </si>
-  <si>
     <t>01/01/2000</t>
   </si>
   <si>
@@ -327,21 +306,12 @@
     <t>26/09/2021</t>
   </si>
   <si>
-    <t>por aca</t>
-  </si>
-  <si>
     <t>01/05/2012</t>
   </si>
   <si>
     <t>01:12:31</t>
   </si>
   <si>
-    <t>-156.51</t>
-  </si>
-  <si>
-    <t>aca</t>
-  </si>
-  <si>
     <t>02/01/1995</t>
   </si>
   <si>
@@ -360,54 +330,30 @@
     <t>18:14:00</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
     <t>20:08:00</t>
   </si>
   <si>
-    <t>asdasdasda</t>
-  </si>
-  <si>
-    <t>si pa</t>
-  </si>
-  <si>
     <t>28/09/2021</t>
   </si>
   <si>
     <t>15:05:00</t>
   </si>
   <si>
-    <t>cambio de main</t>
-  </si>
-  <si>
-    <t>funciona el control</t>
-  </si>
-  <si>
     <t>15:35:00</t>
   </si>
   <si>
-    <t>funciona agregar</t>
-  </si>
-  <si>
     <t>Cambia el primero</t>
   </si>
   <si>
     <t>15:55:00</t>
   </si>
   <si>
-    <t>Inserta al final</t>
-  </si>
-  <si>
     <t>03/03/2000</t>
   </si>
   <si>
     <t>10:30:20</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>03/01/2000</t>
   </si>
   <si>
@@ -423,108 +369,66 @@
     <t>03:20:21</t>
   </si>
   <si>
-    <t>Al frente de mi casa</t>
-  </si>
-  <si>
     <t>06:20:21</t>
   </si>
   <si>
-    <t>Al frente de mi casa x2</t>
-  </si>
-  <si>
     <t>04/05/1990</t>
   </si>
   <si>
     <t>23:10:10</t>
   </si>
   <si>
-    <t>En el centro de la tierra</t>
-  </si>
-  <si>
     <t>04/09/1998</t>
   </si>
   <si>
     <t>00:10:05</t>
   </si>
   <si>
-    <t>Al lado del pasado</t>
-  </si>
-  <si>
     <t>21:20:00</t>
   </si>
   <si>
-    <t>En mi cuarto</t>
-  </si>
-  <si>
     <t>21:24:00</t>
   </si>
   <si>
-    <t>Debajo de mi cama</t>
-  </si>
-  <si>
     <t>29/02/2020</t>
   </si>
   <si>
     <t>11:11:11</t>
   </si>
   <si>
-    <t>prueba valdiar fecha</t>
-  </si>
-  <si>
-    <t>JAJAJ</t>
-  </si>
-  <si>
     <t>12/01/2012</t>
   </si>
   <si>
     <t>00:00:22</t>
   </si>
   <si>
-    <t>Feo</t>
-  </si>
-  <si>
     <t>23/09/2021</t>
   </si>
   <si>
     <t>22:01:00</t>
   </si>
   <si>
-    <t>jajaj xdddd</t>
-  </si>
-  <si>
     <t>12/12/2020</t>
   </si>
   <si>
     <t>09:55:12</t>
   </si>
   <si>
-    <t>por mi choza</t>
-  </si>
-  <si>
     <t>01/10/2021</t>
   </si>
   <si>
     <t>22:02:00</t>
   </si>
   <si>
-    <t>En la cocina de mi casa</t>
-  </si>
-  <si>
     <t>23:25:30</t>
   </si>
   <si>
-    <t>En el walmart</t>
-  </si>
-  <si>
     <t>10/10/1934</t>
   </si>
   <si>
     <t>01:55:55</t>
   </si>
   <si>
-    <t>MI casaaaaa jajaajja xd</t>
-  </si>
-  <si>
     <t>06/10/2021</t>
   </si>
   <si>
@@ -532,6 +436,195 @@
   </si>
   <si>
     <t xml:space="preserve"> Calle Fallas</t>
+  </si>
+  <si>
+    <t>San Isidro del General</t>
+  </si>
+  <si>
+    <t>Tres Rios</t>
+  </si>
+  <si>
+    <t>Upala</t>
+  </si>
+  <si>
+    <t>San Carlos</t>
+  </si>
+  <si>
+    <t>La Palma</t>
+  </si>
+  <si>
+    <t>Calle Fallas</t>
+  </si>
+  <si>
+    <t>Aserri</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Escazu</t>
+  </si>
+  <si>
+    <t>Cartago</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>Siquirres</t>
+  </si>
+  <si>
+    <t>Nicoya</t>
+  </si>
+  <si>
+    <t>Coyote</t>
+  </si>
+  <si>
+    <t>Isla del Coco</t>
+  </si>
+  <si>
+    <t>Isla Chira</t>
+  </si>
+  <si>
+    <t>13 km Norte de Multiplaza Curridabat</t>
+  </si>
+  <si>
+    <t>City Mall</t>
+  </si>
+  <si>
+    <t>Paseo Metropoli</t>
+  </si>
+  <si>
+    <t>Paseo de las Flores</t>
+  </si>
+  <si>
+    <t>MI casa</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Guapiles</t>
+  </si>
+  <si>
+    <t>UCR</t>
+  </si>
+  <si>
+    <t>Heredia</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>3 km sur de Parque Placentero</t>
+  </si>
+  <si>
+    <t>Pisos Picados</t>
+  </si>
+  <si>
+    <t>Dusty Depot</t>
+  </si>
+  <si>
+    <t>Salty Springs</t>
+  </si>
+  <si>
+    <t>Flush Factory</t>
+  </si>
+  <si>
+    <t>Consulado</t>
+  </si>
+  <si>
+    <t>Favela</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Club House</t>
+  </si>
+  <si>
+    <t>Litoral</t>
+  </si>
+  <si>
+    <t>Kafe Dostoyevsky</t>
+  </si>
+  <si>
+    <t>1 km oeste del Colegio El Rosario</t>
+  </si>
+  <si>
+    <t>Moravia</t>
+  </si>
+  <si>
+    <t>CAMBIO A ALAJUELA CENTRO</t>
+  </si>
+  <si>
+    <t>A la par de Puerto Viejo</t>
+  </si>
+  <si>
+    <t>2 km sur de Alajuelita</t>
+  </si>
+  <si>
+    <t>Camp Nou</t>
+  </si>
+  <si>
+    <t>3 km Norte de Puerto Caldera</t>
+  </si>
+  <si>
+    <t>Playa del Coco</t>
+  </si>
+  <si>
+    <t>Tamarindo</t>
+  </si>
+  <si>
+    <t>Montezuma</t>
+  </si>
+  <si>
+    <t>Playa Bejuco</t>
+  </si>
+  <si>
+    <t>Volcan Irazu</t>
+  </si>
+  <si>
+    <t>Al frente de Dos Cercas</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>En el centro de Turrialba</t>
+  </si>
+  <si>
+    <t>A la par de la Dos Pinos</t>
+  </si>
+  <si>
+    <t>Barrio Escalante</t>
+  </si>
+  <si>
+    <t>Liberia Centro</t>
+  </si>
+  <si>
+    <t>Yucatan</t>
+  </si>
+  <si>
+    <t>a la par de la UNA</t>
+  </si>
+  <si>
+    <t>San Antonio de Desamparados</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Banco de Costa Rica</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>En el walmart de San Sebastian</t>
+  </si>
+  <si>
+    <t>2 km sur de la Basilica</t>
   </si>
 </sst>
 </file>
@@ -931,25 +1024,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="11" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="11" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="20.0" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="10.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="50.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.1640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.1640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12.5" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.1640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="50.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.1640625" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -982,7 +1075,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -1011,11 +1104,11 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
@@ -1047,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -1143,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
@@ -1207,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -1271,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
@@ -1303,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1335,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>44</v>
       </c>
@@ -1367,7 +1460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
@@ -1399,7 +1492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -1431,7 +1524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
@@ -1460,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
@@ -1495,7 +1588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
@@ -1527,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
@@ -1559,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>51</v>
       </c>
@@ -1592,7 +1685,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
@@ -1624,7 +1717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -1632,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="C22">
-        <v>12313</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1231</v>
@@ -1653,25 +1746,25 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
       <c r="C23">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1686,16 +1779,16 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>79</v>
-      </c>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
       </c>
       <c r="C24">
         <v>123</v>
@@ -1704,7 +1797,7 @@
         <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1719,25 +1812,25 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="K24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25">
-        <v>1231</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1752,25 +1845,25 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C26">
-        <v>3123.3131199999998</v>
+        <v>31.31</v>
       </c>
       <c r="D26">
-        <v>-23.31</v>
+        <v>23.31</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1785,31 +1878,31 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="K26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>-150</v>
       </c>
       <c r="D27">
-        <v>-15651.8516</v>
+        <v>141.85</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <v>7</v>
       </c>
       <c r="G27">
-        <v>-666666.11109999998</v>
+        <v>-666.11</v>
       </c>
       <c r="H27">
         <v>-651.20000000000005</v>
@@ -1818,16 +1911,16 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="K27"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1851,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1884,16 +1977,16 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>62</v>
@@ -1908,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>-1565.65146</v>
+        <v>-15.66</v>
       </c>
       <c r="H30">
         <v>64156.651250000003</v>
@@ -1917,16 +2010,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>62</v>
@@ -1941,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>-1565.65146</v>
+        <v>-65.146000000000001</v>
       </c>
       <c r="H31">
         <v>64156.651250000003</v>
@@ -1950,16 +2043,16 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1968,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -1983,16 +2076,16 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>23</v>
@@ -2016,16 +2109,16 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2034,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2049,16 +2142,16 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2067,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2082,16 +2175,16 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -2100,7 +2193,7 @@
         <v>6.1</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2115,15 +2208,15 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -2147,15 +2240,15 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -2164,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -2179,15 +2272,15 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2211,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2246,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2278,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2310,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2374,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2406,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2438,7 +2531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2470,7 +2563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2534,7 +2627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2566,7 +2659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2598,7 +2691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2630,7 +2723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -2662,7 +2755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -2694,7 +2787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2726,7 +2819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -2758,7 +2851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -2790,7 +2883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2822,7 +2915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -2854,7 +2947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2883,15 +2976,15 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>76</v>
-      </c>
-      <c r="B61" t="s">
-        <v>77</v>
       </c>
       <c r="C61">
         <v>131</v>
@@ -2900,7 +2993,7 @@
         <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -2915,15 +3008,15 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
       </c>
       <c r="C62">
         <v>123</v>
@@ -2932,7 +3025,7 @@
         <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2947,15 +3040,15 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>1231</v>
@@ -2964,7 +3057,7 @@
         <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -2979,24 +3072,24 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C64">
-        <v>3123.3131199999998</v>
+        <v>12.54</v>
       </c>
       <c r="D64">
-        <v>-23.31</v>
+        <v>23.31</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -3011,30 +3104,30 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C65">
-        <v>-150</v>
+        <v>7.3</v>
       </c>
       <c r="D65">
-        <v>-15651.8516</v>
+        <v>11.85</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65">
-        <v>-666666.11109999998</v>
+        <v>-666.11</v>
       </c>
       <c r="H65">
         <v>-651.20000000000005</v>
@@ -3043,15 +3136,15 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3075,15 +3168,15 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -3107,15 +3200,15 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>62</v>
@@ -3130,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>-1565.65146</v>
+        <v>-165.65</v>
       </c>
       <c r="H68">
         <v>64156.651250000003</v>
@@ -3139,15 +3232,15 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -3156,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -3171,15 +3264,15 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>23</v>
@@ -3194,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="G70">
-        <v>-54156.2</v>
+        <v>-5416.2</v>
       </c>
       <c r="H70">
         <v>15351.2</v>
@@ -3203,15 +3296,15 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3220,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -3235,15 +3328,15 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3252,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F72">
         <v>7</v>
@@ -3267,15 +3360,15 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -3284,7 +3377,7 @@
         <v>6.1</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F73">
         <v>5</v>
@@ -3299,15 +3392,15 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -3322,24 +3415,24 @@
         <v>3</v>
       </c>
       <c r="G74">
-        <v>-18561.111000000001</v>
+        <v>-1861.11</v>
       </c>
       <c r="H74">
-        <v>111.312313</v>
+        <v>111.31229999999999</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -3348,13 +3441,13 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <v>-516.15465400000005</v>
+        <v>-516.15440000000001</v>
       </c>
       <c r="H75">
         <v>-12864.54</v>
@@ -3363,15 +3456,15 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3395,10 +3488,10 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -3430,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3462,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -3494,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -3526,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -3558,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -3590,7 +3683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -3622,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3654,7 +3747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -3686,7 +3779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -3718,7 +3811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -3750,7 +3843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -3782,7 +3875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -3814,7 +3907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>46</v>
       </c>
@@ -3837,7 +3930,7 @@
         <v>9.4978999999999996</v>
       </c>
       <c r="H90">
-        <v>-83.659099999999995</v>
+        <v>-83.61</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3846,7 +3939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>47</v>
       </c>
@@ -3878,7 +3971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -3910,7 +4003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -3942,7 +4035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>50</v>
       </c>
@@ -3974,7 +4067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -4006,7 +4099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -4038,7 +4131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -4046,7 +4139,7 @@
         <v>74</v>
       </c>
       <c r="C97">
-        <v>12313</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>1231</v>
@@ -4067,15 +4160,15 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>76</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
       </c>
       <c r="C98">
         <v>131</v>
@@ -4084,7 +4177,7 @@
         <v>31</v>
       </c>
       <c r="E98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F98">
         <v>7</v>
@@ -4099,15 +4192,15 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" t="s">
-        <v>81</v>
       </c>
       <c r="C99">
         <v>123</v>
@@ -4116,7 +4209,7 @@
         <v>123</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -4131,15 +4224,15 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C100">
         <v>1231</v>
@@ -4148,7 +4241,7 @@
         <v>131</v>
       </c>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -4163,24 +4256,24 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C101">
-        <v>3123.3131199999998</v>
+        <v>10.4</v>
       </c>
       <c r="D101">
-        <v>-23.31</v>
+        <v>23.31</v>
       </c>
       <c r="E101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -4195,30 +4288,30 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C102">
-        <v>-150</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>-15651.8516</v>
+        <v>51.8</v>
       </c>
       <c r="E102" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F102">
         <v>7</v>
       </c>
       <c r="G102">
-        <v>-666666.11109999998</v>
+        <v>-66.111000000000004</v>
       </c>
       <c r="H102">
         <v>-651.20000000000005</v>
@@ -4227,15 +4320,15 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4259,15 +4352,15 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -4291,15 +4384,15 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C105">
         <v>62</v>
@@ -4323,15 +4416,15 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C106">
         <v>12</v>
@@ -4340,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F106">
         <v>7</v>
@@ -4355,15 +4448,15 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C107">
         <v>23</v>
@@ -4387,15 +4480,15 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4404,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F108">
         <v>5</v>
@@ -4419,15 +4512,15 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4436,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F109">
         <v>7</v>
@@ -4451,15 +4544,15 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C110">
         <v>6</v>
@@ -4468,7 +4561,7 @@
         <v>6.1</v>
       </c>
       <c r="E110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -4483,15 +4576,15 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -4509,21 +4602,21 @@
         <v>-18561.111000000001</v>
       </c>
       <c r="H111">
-        <v>111.312313</v>
+        <v>111.313</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -4532,7 +4625,7 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -4541,21 +4634,21 @@
         <v>-516.15465400000005</v>
       </c>
       <c r="H112">
-        <v>-12864.54</v>
+        <v>-164.54</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4579,15 +4672,15 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C114">
         <v>100</v>
@@ -4611,15 +4704,15 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C115">
         <v>14</v>
@@ -4643,15 +4736,15 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -4675,15 +4768,15 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -4707,15 +4800,15 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -4739,15 +4832,15 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -4771,15 +4864,15 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C120">
         <v>10</v>
@@ -4803,15 +4896,15 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -4820,7 +4913,7 @@
         <v>700</v>
       </c>
       <c r="E121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -4835,15 +4928,15 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -4852,7 +4945,7 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F122">
         <v>7</v>
@@ -4867,21 +4960,21 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123">
-        <v>7000</v>
+        <v>710</v>
       </c>
       <c r="E123" t="s">
         <v>30</v>
@@ -4899,15 +4992,15 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C124">
         <v>300</v>
@@ -4931,15 +5024,15 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -4948,7 +5041,7 @@
         <v>3.34</v>
       </c>
       <c r="E125" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F125">
         <v>3</v>
@@ -4963,15 +5056,15 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>36</v>
@@ -4980,7 +5073,7 @@
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F126">
         <v>6</v>
@@ -4995,15 +5088,15 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C127">
         <v>33.299999999999997</v>
@@ -5027,15 +5120,15 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C128">
         <v>45</v>
@@ -5044,7 +5137,7 @@
         <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -5059,15 +5152,15 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C129">
         <v>45</v>
@@ -5091,15 +5184,15 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C130">
         <v>23</v>
@@ -5108,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F130">
         <v>3</v>
@@ -5123,18 +5216,18 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C131">
-        <v>1222</v>
+        <v>22</v>
       </c>
       <c r="D131">
         <v>23</v>
@@ -5155,39 +5248,39 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4.6</v>
+        <v>135</v>
+      </c>
+      <c r="C132">
+        <v>30</v>
+      </c>
+      <c r="D132">
+        <v>4.5999999999999996</v>
       </c>
       <c r="E132" t="s">
         <v>29</v>
       </c>
-      <c r="F132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G132" t="n">
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
         <v>3087.43</v>
       </c>
-      <c r="H132" t="n">
-        <v>-88092.902</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1.0</v>
+      <c r="H132">
+        <v>-880.90200000000004</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5198,6 +5291,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001DAFAB72B11A8841BB4C9719408B0024" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1e33d7e037175ffe44e86b38844c8de0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47562841-78c1-4b44-a16c-8a242845c2e3" xmlns:ns4="5efee8aa-3388-4072-ad52-ddb68a0c1c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02d5c5f1f966805c25b1387ee6e04d1" ns3:_="" ns4:_="">
     <xsd:import namespace="47562841-78c1-4b44-a16c-8a242845c2e3"/>
@@ -5426,12 +5525,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5442,6 +5535,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BF098F-A7EB-4925-BB55-245E4CAE68F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="47562841-78c1-4b44-a16c-8a242845c2e3"/>
+    <ds:schemaRef ds:uri="5efee8aa-3388-4072-ad52-ddb68a0c1c80"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C6BD292-3975-4671-ABC5-887978E1C114}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5460,23 +5570,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BF098F-A7EB-4925-BB55-245E4CAE68F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="47562841-78c1-4b44-a16c-8a242845c2e3"/>
-    <ds:schemaRef ds:uri="5efee8aa-3388-4072-ad52-ddb68a0c1c80"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4292BCCE-7308-4F70-A272-6B4ADAEE3B4B}">
   <ds:schemaRefs>

--- a/Excel/baseDatosSismos.xlsx
+++ b/Excel/baseDatosSismos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="206">
   <si>
     <t>3.6 km Norte de Carrizal de Alajuela</t>
   </si>
@@ -625,6 +625,24 @@
   </si>
   <si>
     <t>2 km sur de la Basilica</t>
+  </si>
+  <si>
+    <t>Ceneguita</t>
+  </si>
+  <si>
+    <t>09/10/2021</t>
+  </si>
+  <si>
+    <t>21:29:00</t>
+  </si>
+  <si>
+    <t>Marcial Fallas</t>
+  </si>
+  <si>
+    <t>21:42:00</t>
+  </si>
+  <si>
+    <t>Maxi Pali</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J136" sqref="J136"/>
@@ -1030,16 +1048,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12.5" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.1640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="50.5" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.1640625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="14" width="11.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="10.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="14.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="17.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="20.0" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="10.1640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="50.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -5267,8 +5285,8 @@
       <c r="E132" t="s">
         <v>29</v>
       </c>
-      <c r="F132">
-        <v>1</v>
+      <c r="F132" t="n">
+        <v>7.0</v>
       </c>
       <c r="G132">
         <v>3087.43</v>
@@ -5280,7 +5298,71 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>136</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" t="s">
+        <v>202</v>
+      </c>
+      <c r="C133" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>77</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-500.4</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>77</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-903.5</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
